--- a/biology/Zoologie/Azur_printanier/Azur_printanier.xlsx
+++ b/biology/Zoologie/Azur_printanier/Azur_printanier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrina ladon
 L'Azur printanier (Celastrina ladon) est un insecte lépidoptère de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Celastrina.
@@ -512,48 +524,122 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Celastrina ladon (Cramer, 1780)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celastrina ladon (Cramer, 1780)
 Synonyme :Papilio ladon (Cramer, 1780), Argus pseudargiolus (Boisduval et Leconte, 1833)
 Parfois considérée comme une sous-espèce de l'Azuré des nerpruns, sous le nom Celastrina argiolus ladon.
-Noms vernaculaires
-L'Azur printanier se nomme en anglais Spring Azure.
-Sous-espèce
-Celastrina ladon ladon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azur printanier se nomme en anglais Spring Azure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Celastrina ladon ladon
 Celastrina ladon argentata (Fletcher, 1903)
 Celastrina ladon cinerea (Edwards, 1883) dans l'Arizona
 Celastrina ladon lucia ou Celastrina lucia (Kirby, 1837) le Boreal Spring Azure.
 Celastrina ladon nigrescens (Fletcher, 1903) le Western Spring Azure
-Celastrina ladon sidara (Clench, 1944) dans le Colorado[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Azur_printanier</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Celastrina ladon sidara (Clench, 1944) dans le Colorado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Azur printanier est un petit papillon au dessus bleu avec chez la femelle une large bordure grise. La couleur bleue va du bleu pâle chez Celastrina ladon lucia au bleu violacé chez Celastrina ladon nigrescens
 Le revers est gris pâle suffusé de bleu et orné de lignes de petits points noirs.
@@ -561,72 +647,184 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Azur_printanier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Les chenilles, vertes, parfois brun jaunâtre ou brun rougeâtre, avec une bande plus foncée sur le milieu du dos, sont prises en charge par les fourmis.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles, vertes, parfois brun jaunâtre ou brun rougeâtre, avec une bande plus foncée sur le milieu du dos, sont prises en charge par les fourmis.
 Il hiverne au stade nymphal.
-Plantes hôtes
-Très diverses.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Azur_printanier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très diverses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Azur printanier est présent dans toute l'Amérique du Nord.
-Biotope
-Il affectionne les lisières des bois.
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les lisières des bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azur_printanier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur_printanier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
